--- a/Ch3_Runner_Sample_Data_Long.xlsx
+++ b/Ch3_Runner_Sample_Data_Long.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="19330"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gbeno\Google Drive\Survey Book\Writing\Ch. 3_ Preparing for Data Analysis\Resources\R code &amp; data\Runner Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\james\Google Drive\Survey Book\Writing\Ch. 3_ Preparing for Data Analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FC8FB37E-5AD1-4F89-90A4-052D92CEF31E}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{5449C581-E1DD-40CD-90C7-572B101E5308}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ch3_Runner_Sample_Data_Long" sheetId="1" r:id="rId1"/>
@@ -34,18 +34,6 @@
     <t>Runner 1</t>
   </si>
   <si>
-    <t>Trial 1 Time</t>
-  </si>
-  <si>
-    <t>Trial 1 Exertion</t>
-  </si>
-  <si>
-    <t>Trial 2 Time</t>
-  </si>
-  <si>
-    <t>Trial 2 Exertion</t>
-  </si>
-  <si>
     <t>Runner 2</t>
   </si>
   <si>
@@ -57,11 +45,23 @@
   <si>
     <t>Runner 5</t>
   </si>
+  <si>
+    <t>Trial 1 Exertion (RPE)</t>
+  </si>
+  <si>
+    <t>Trial 2 Exertion (RPE)</t>
+  </si>
+  <si>
+    <t>Trial 1 Time (seconds)</t>
+  </si>
+  <si>
+    <t>Trial 2 Time (seconds)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -895,14 +895,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="13.453125" customWidth="1"/>
+    <col min="2" max="2" width="28.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.35">
@@ -921,7 +921,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C2">
         <v>1082</v>
@@ -932,7 +932,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>7</v>
@@ -943,7 +943,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C4">
         <v>1243</v>
@@ -954,7 +954,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C5">
         <v>9</v>
@@ -962,10 +962,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C6">
         <v>1440</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>4</v>
+      </c>
+      <c r="B7" t="s">
         <v>8</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
       </c>
       <c r="C7">
         <v>14</v>
@@ -984,10 +984,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C8">
         <v>1480</v>
@@ -995,10 +995,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="B9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C9">
         <v>12</v>
@@ -1006,10 +1006,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C10">
         <v>1914</v>
@@ -1017,10 +1017,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B11" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C11">
         <v>17</v>
@@ -1028,10 +1028,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="B12" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C12">
         <v>1754</v>
@@ -1039,10 +1039,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>5</v>
+      </c>
+      <c r="B13" t="s">
         <v>9</v>
-      </c>
-      <c r="B13" t="s">
-        <v>7</v>
       </c>
       <c r="C13">
         <v>17</v>
@@ -1050,10 +1050,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="B14" t="s">
         <v>10</v>
-      </c>
-      <c r="B14" t="s">
-        <v>4</v>
       </c>
       <c r="C14">
         <v>1647</v>
@@ -1061,10 +1061,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B15" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C15">
         <v>11</v>
@@ -1072,10 +1072,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B16" t="s">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="C16">
         <v>1578</v>
@@ -1083,10 +1083,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="B17" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C17">
         <v>10</v>
@@ -1094,10 +1094,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="C18">
         <v>1683</v>
@@ -1105,10 +1105,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C19">
         <v>19</v>
@@ -1116,10 +1116,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>7</v>
+      </c>
+      <c r="B20" t="s">
         <v>11</v>
-      </c>
-      <c r="B20" t="s">
-        <v>6</v>
       </c>
       <c r="C20">
         <v>1714</v>
@@ -1127,10 +1127,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B21" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="C21">
         <v>20</v>
